--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF479A7D-FF71-41F5-B153-4A1A44994057}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEE100E-E5B4-4DCB-B164-FB791B46778B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
   <sheets>
     <sheet name="NavPage" sheetId="1" r:id="rId1"/>
+    <sheet name="NavBarPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>NavItem</t>
   </si>
@@ -199,6 +200,15 @@
   </si>
   <si>
     <t>coupons</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>CNN Travel | Global Destinations, Tips &amp; Video</t>
   </si>
 </sst>
 </file>
@@ -563,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5950201-C1FD-40FE-9548-1BC8F47EF8E2}">
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,4 +798,208 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD0977A-FB86-4B79-858E-D3B833A09E59}">
+  <dimension ref="A3:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{E36F5E24-3060-4A43-8DAF-DB3857A34B12}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{60D52AFB-02C3-4633-955E-C35D5E7D765C}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{87DD4B91-4B56-4773-ACE5-47E5D86166AA}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{97B88446-892E-4783-85C4-85D1975D6A60}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{38A77E69-E168-4056-87AD-7838B23B6A5D}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{49F52563-01A7-40BD-90BA-E8C5D7441947}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{4A80FC56-6642-4561-B4F8-896F5964E8B0}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{A6BC1192-13D8-4568-BF7A-E837A80D96E4}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{56AF491E-63AF-4EF7-B7D8-635375813B53}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{7CDA4CCD-2A5D-434A-BC38-F0B77827D123}"/>
+    <hyperlink ref="E9" r:id="rId11" xr:uid="{49FF6698-9FBA-4E75-AD8D-F7D30F6643D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEE100E-E5B4-4DCB-B164-FB791B46778B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EE2DA-3FD2-447C-84DF-2B4AE1B2F84E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>NavItem</t>
   </si>
@@ -209,6 +209,42 @@
   </si>
   <si>
     <t>CNN Travel | Global Destinations, Tips &amp; Video</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Opinion</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -805,12 +841,14 @@
   <dimension ref="A3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
   </cols>
@@ -819,6 +857,9 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -833,6 +874,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -847,6 +891,9 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -861,6 +908,9 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -875,6 +925,9 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -889,6 +942,9 @@
       <c r="A9" t="s">
         <v>57</v>
       </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -900,6 +956,9 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -914,6 +973,9 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
@@ -928,6 +990,9 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
@@ -942,6 +1007,9 @@
       <c r="A13" t="s">
         <v>39</v>
       </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
       <c r="C13" t="s">
         <v>58</v>
       </c>
@@ -956,6 +1024,9 @@
       <c r="A14" t="s">
         <v>56</v>
       </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
@@ -969,6 +1040,9 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>

--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EE2DA-3FD2-447C-84DF-2B4AE1B2F84E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AB272-84E3-4B0E-B581-00C7A5D4F243}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
   <sheets>
     <sheet name="NavPage" sheetId="1" r:id="rId1"/>
     <sheet name="NavBarPage" sheetId="2" r:id="rId2"/>
+    <sheet name="LiveTvPage" sheetId="3" r:id="rId3"/>
+    <sheet name="TvPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>NavItem</t>
   </si>
@@ -245,6 +247,123 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>https://go.cnn.com/?stream=cnn%3Fsr</t>
+  </si>
+  <si>
+    <t>CNNgo - CNN.com&lt;title&gt;CNNgo - CNN.com</t>
+  </si>
+  <si>
+    <t>close Cross right</t>
+  </si>
+  <si>
+    <t>#mvpdpicker &gt; div.header &gt; div.close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>#mvpdpicker &gt; div.header &gt; div.title &gt; span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get text </t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>#mvpdpicker &gt; div.header &gt; div.help</t>
+  </si>
+  <si>
+    <t>#mvpdpicker &gt; div.slates &gt; div.slate.pickbylogo &gt; ul</t>
+  </si>
+  <si>
+    <t>list of provider</t>
+  </si>
+  <si>
+    <t>get title</t>
+  </si>
+  <si>
+    <t>iframe 1</t>
+  </si>
+  <si>
+    <t>googlead</t>
+  </si>
+  <si>
+    <t>#google_ads_iframe_\2f 8663477\2f CNN\2f tv\2f landing_0</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/tv</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;CNN TV - CNN&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image </t>
+  </si>
+  <si>
+    <t>get url</t>
+  </si>
+  <si>
+    <t>#aw0 &gt; img</t>
+  </si>
+  <si>
+    <t>#tv-zone-2 &gt; div.l-container.zn__background--content-relative &gt; div.zn__containers &gt; div.column.zn__column--idx-0 &gt; ul &gt; li &gt; article &gt; div &gt; div.media &gt; a</t>
+  </si>
+  <si>
+    <t>//*[@id="tv-zone-2"]/div[2]/div[2]/div[1]/ul/li/article/div/div[1]/a</t>
+  </si>
+  <si>
+    <t>anthony bourdian</t>
+  </si>
+  <si>
+    <t>#tv-zone-2 &gt; div.l-container.zn__background--content-relative &gt; div.zn__containers &gt; div.column.zn__column--idx-1 &gt; ul &gt; li &gt; article &gt; div &gt; div.media &gt; a</t>
+  </si>
+  <si>
+    <t>this is life with lisa</t>
+  </si>
+  <si>
+    <t>#tv-zone-2 &gt; div.l-container.zn__background--content-relative &gt; div.zn__containers &gt; div.column.zn__column--idx-2 &gt; ul &gt; li &gt; article &gt; div &gt; div.media &gt; a</t>
+  </si>
+  <si>
+    <t>#tv-zone-3 &gt; div.l-container.zn__background--content-relative &gt; div.zn-header &gt; h2</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="zn-header__text"&gt;Watch CNN on demand with CNNgo&lt;span class="zn-header__stripes"&gt;&amp;nbsp;&lt;/span&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>#tv-zone-3 &gt; div.l-container.zn__background--content-relative &gt; div.zn__containers &gt; div &gt; ul &gt; li &gt; article &gt; div &gt; div.media &gt; a &gt; img</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="zn-header__text"&gt;Watch CNN on demand with CNNgo&lt;span class="zn-header__stripes"&gt;&amp;nbsp;&lt;/span&gt;&lt;/h2&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://go.cnn.com/?stream=cnn"&gt;</t>
   </si>
 </sst>
 </file>
@@ -840,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD0977A-FB86-4B79-858E-D3B833A09E59}">
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1076,4 +1195,226 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF6B724-ECC9-41D4-8A5B-B8229D664A33}">
+  <dimension ref="A2:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7CB61290-2BA7-4DBE-AC95-C2BE40B79DD6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835F786-A865-4D57-BEC0-4D06545FE528}">
+  <dimension ref="A2:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A19E5F83-8E3C-4088-885E-C18175BD472A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AB272-84E3-4B0E-B581-00C7A5D4F243}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB87228-82C3-4526-B071-77FB1FFE3269}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>NavItem</t>
   </si>
@@ -300,9 +300,6 @@
     <t>googlead</t>
   </si>
   <si>
-    <t>#google_ads_iframe_\2f 8663477\2f CNN\2f tv\2f landing_0</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -364,13 +361,50 @@
   </si>
   <si>
     <t>&lt;a href="http://go.cnn.com/?stream=cnn"&gt;</t>
+  </si>
+  <si>
+    <t>Watch CNN on demand with CNNgo</t>
+  </si>
+  <si>
+    <t>image tp gocnn</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;iframe frameborder="0" src="https://tpc.googlesyndication.com/safeframe/1-0-31/html/container.html" id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"google_ads_iframe_/8663477/CNN/tv/landing_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" title="advertisement" name="" scrolling="no" marginwidth="0" marginheight="0" width="970" height="250" data-is-safeframe="true" sandbox="allow-forms allow-pointer-lock allow-popups allow-popups-to-escape-sandbox allow-same-origin allow-scripts allow-top-navigation-by-user-activation" data-google-container-id="1" style="border: 0px; vertical-align: bottom;" data-load-complete="true"&gt;&lt;/iframe&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>"google_ads_iframe_/8663477/CNN/tv/landing_0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frameID= </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +416,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1294,28 +1335,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835F786-A865-4D57-BEC0-4D06545FE528}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,90 +1366,106 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
         <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
         <v>106</v>
       </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1416,5 +1473,6 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A19E5F83-8E3C-4088-885E-C18175BD472A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB87228-82C3-4526-B071-77FB1FFE3269}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF52F6B-AF7E-41E4-89C6-0EF5850E1AFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
+    <workbookView minimized="1" xWindow="4185" yWindow="3390" windowWidth="15300" windowHeight="7875" activeTab="3" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
   <sheets>
     <sheet name="NavPage" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="TvPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
   <si>
     <t>NavItem</t>
   </si>
@@ -298,6 +299,9 @@
   </si>
   <si>
     <t>googlead</t>
+  </si>
+  <si>
+    <t>#google_ads_iframe_\2f 8663477\2f CNN\2f tv\2f landing_0</t>
   </si>
   <si>
     <t>url</t>
@@ -398,6 +402,54 @@
   </si>
   <si>
     <t xml:space="preserve">frameID= </t>
+  </si>
+  <si>
+    <t>//*[@id="google_ads_iframe_/8663477/CNN/tv/landing_0"]</t>
+  </si>
+  <si>
+    <t>&lt;iframe frameborder="0" src="https://tpc.googlesyndication.com/safeframe/1-0-31/html/container.html" id="google_ads_iframe_/8663477/CNN/tv/landing_0" title="advertisement" name="" scrolling="no" marginwidth="0" marginheight="0" width="970" height="250" data-is-safeframe="true" sandbox="allow-forms allow-pointer-lock allow-popups allow-popups-to-escape-sandbox allow-same-origin allow-scripts allow-top-navigation-by-user-activation" data-google-container-id="1" style="border: 0px; vertical-align: bottom;" data-load-complete="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>xpath of first Iframe</t>
+  </si>
+  <si>
+    <t>first iframe element detail</t>
+  </si>
+  <si>
+    <t>&lt;iframe id="kx-proxy-ITb_4eqO" src="https://cdn.krxd.net/partnerjs/xdi/proxy.3d2100fd7107262ecb55ce6847f01fa5.html#!kxcid=ITb_4eqO&amp;amp;kxt=https%3A%2F%2Fwww.cnn.com&amp;amp;kxcl=cdn&amp;amp;kxp=" style="display: none; visibility: hidden; height: 0; width: 0;"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Last Iframe:</t>
+  </si>
+  <si>
+    <t>Body:</t>
+  </si>
+  <si>
+    <t>ifram 1</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Blank" scrolling="no" frameborder="0" height="0" width="0" src="https://pagead2.googlesyndication.com/pagead/s/cookie_push.html#aHR0cHM6Ly9pbWFnZTYucHVibWF0aWMuY29tL0FkU2VydmVyL1VDb29raWVTZXRQdWc_b2lkPTEmcmQ9aHR0cHMlM0ElMkYlMkZjbS5nLmRvdWJsZWNsaWNrLm5ldCUyRnBpeGVsJTNGZ29vZ2xlX25pZCUzRHBtZWIlMjZnb29nbGVfc2MlM0QxJTI2Z29vZ2xlX2htJTNEJTIzJTIzQjY0XzE2Ql9QTV9VSUQlMjZnb29nbGVfcmVkaXIlM0RodHRwcyUyNTI1M0ElMjUyNTJGJTI1MjUyRmltYWdlOC5wdWJtYXRpYy5jb20lMjUyNTJGQWRTZXJ2ZXIlMjUyNTJGSW1nU3luYyUyNTI1M0ZzZWMlMjUyNTNEMSUyNTI1MjZwJTI1MjUzRDE1NjU3OCUyNTI1MjZwdSUyNTI1M0RodHRwcyUyNTI1MjUzQSUyNTI1MjUyRiUyNTI1MjUyRmltYWdlNC5wdWJtYXRpYy5jb20lMjUyNTI1MkZBZFNlcnZlciUyNTI1MjUyRlNQdWclMjUyNTI1M0ZwJTI1MjUyNTNEMTU2NTc4JTI1MjUyNTI2c2MlMjUyNTI1M0QxJmdvb2dsZV9naWQ9Q0FFU0VKTHFEejUzRUpDQzJiYmMxbmY1aFEwJmdvb2dsZV9jdmVyPTEmZ29vZ2xlX3B1c2g9QUhORjEzSWNGVDBQLXJhZDNJQ2d0YWJ6WXNMQXV2enFCYWVqR2lDZ0JqNTd0QQ==,aHR0cHM6Ly9jbS5nLmRvdWJsZWNsaWNrLm5ldC9waXhlbC9hdHRyP2Q9QUhORjEzSWFYMm44N0dBejFxVW8tek1ZbTdHZ1JjTWNrVmNv" style="position:absolute" aria-hidden="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>iframe2</t>
+  </si>
+  <si>
+    <t>body &gt; iframe</t>
+  </si>
+  <si>
+    <t>/html/body/iframe</t>
+  </si>
+  <si>
+    <t>&lt;iframe name="f33672ba50eeba8" frameborder="0" allowtransparency="true" allowfullscreen="true" scrolling="no" allow="encrypted-media" src="https://www.facebook.com/connect/ping?client_id=80401312489&amp;amp;domain=www.cnn.com&amp;amp;origin=1&amp;amp;redirect_uri=https%3A%2F%2Fstaticxx.facebook.com%2Fconnect%2Fxd_arbiter%2Fr%2Fj-GHT1gpo6-.js%3Fversion%3D43%23cb%3Df335fba52e6ec8%26domain%3Dwww.cnn.com%26origin%3Dhttps%253A%252F%252Fwww.cnn.com%252Ff22e8292e7067f8%26relation%3Dparent&amp;amp;response_type=token%2Csigned_request&amp;amp;sdk=joey" style="display: none;"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe name="f1c414955bf793" frameborder="0" allowtransparency="true" allowfullscreen="true" scrolling="no" allow="encrypted-media" src="https://www.facebook.com/connect/ping?client_id=80401312489&amp;amp;domain=www.cnn.com&amp;amp;origin=1&amp;amp;redirect_uri=https%3A%2F%2Fstaticxx.facebook.com%2Fconnect%2Fxd_arbiter%2Fr%2Fj-GHT1gpo6-.js%3Fversion%3D43%23cb%3Df3882485321ac%26domain%3Dwww.cnn.com%26origin%3Dhttps%253A%252F%252Fwww.cnn.com%252Ff22e8292e7067f8%26relation%3Dparent&amp;amp;response_type=token%2Csigned_request&amp;amp;sdk=joey" style="display: none;"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="zn-header__text-page_header"&gt;TV&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>TV H1</t>
   </si>
 </sst>
 </file>
@@ -1335,31 +1387,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835F786-A865-4D57-BEC0-4D06545FE528}">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1367,105 +1422,198 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>98</v>
       </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
         <v>100</v>
       </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
         <v>105</v>
-      </c>
-      <c r="F20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF52F6B-AF7E-41E4-89C6-0EF5850E1AFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192E79C-BD90-4F20-9B87-75DF0B47C283}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4185" yWindow="3390" windowWidth="15300" windowHeight="7875" activeTab="3" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
   <sheets>
     <sheet name="NavPage" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="TvPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>NavItem</t>
   </si>
@@ -450,6 +449,21 @@
   </si>
   <si>
     <t>TV H1</t>
+  </si>
+  <si>
+    <t>body &gt; div.pg-no-rail.pg-wrapper &gt; div.l-container &gt; header &gt; div &gt; h1</t>
+  </si>
+  <si>
+    <t>/html/body/div[8]/div[2]/header/div/h1</t>
+  </si>
+  <si>
+    <t>#tv-zone-2 &gt; div.l-container.zn__background--content-relative &gt; div.zn-header &gt; h2</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="zn-header__text"&gt;Don't miss on CNN&lt;span class="zn-header__stripes"&gt;&amp;nbsp;&lt;/span&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>//*[@id="tv-zone-3"]/div[2]/div[2]/div/ul/li/article/div/div[1]/a/img</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF6B724-ECC9-41D4-8A5B-B8229D664A33}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1387,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835F786-A865-4D57-BEC0-4D06545FE528}">
-  <dimension ref="A2:I63"/>
+  <dimension ref="A2:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,6 +1524,16 @@
         <v>105</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>111</v>
@@ -1533,6 +1557,11 @@
         <v>110</v>
       </c>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>118</v>
@@ -1614,6 +1643,26 @@
       </c>
       <c r="F63" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192E79C-BD90-4F20-9B87-75DF0B47C283}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0707A6-F59C-493A-9CC7-DEE895D7DBA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
   <sheets>
     <sheet name="NavPage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>NavItem</t>
   </si>
@@ -464,6 +464,33 @@
   </si>
   <si>
     <t>//*[@id="tv-zone-3"]/div[2]/div[2]/div/ul/li/article/div/div[1]/a/img</t>
+  </si>
+  <si>
+    <t>#nav-mobileTV</t>
+  </si>
+  <si>
+    <t>LiveTv</t>
+  </si>
+  <si>
+    <t>&lt;li data-mvpdid="ATT" title="AT&amp;amp;T U-verse"&gt;&lt;img class="mvpdlogo" alt="AT&amp;amp;T U-verse" src="https://cvp1.cdn.turner.com/xslo/cvp/config/common/tve/assets/Picker_Web_ATT_237x97.png"&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>#mvpdpicker &gt; div.slates &gt; div.slate.pickbylogo &gt; ul &gt; li:nth-child(1)</t>
+  </si>
+  <si>
+    <t>#nav &gt; div.nav__container &gt; div.js-edition-picker.edition-picker &gt; div.edition-picker__current-edition.nav-section--expanded</t>
+  </si>
+  <si>
+    <t>#nav &gt; div.nav__container &gt; div.js-edition-picker.edition-picker &gt; div.edition-picker__current-edition &gt; span</t>
+  </si>
+  <si>
+    <t>#nav &gt; div.nav__container &gt; div.js-edition-picker.edition-picker &gt; div.edition-picker__current-edition</t>
+  </si>
+  <si>
+    <t>//*[@id="nav"]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t>#nav &gt; div.nav__container &gt; div.nav-menu-links</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD0977A-FB86-4B79-858E-D3B833A09E59}">
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1306,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF6B724-ECC9-41D4-8A5B-B8229D664A33}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1344,7 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1333,7 +1360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1341,7 +1368,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1349,7 +1384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1363,7 +1398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1376,8 +1411,11 @@
       <c r="H9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1389,6 +1427,21 @@
       </c>
       <c r="H12" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1401,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835F786-A865-4D57-BEC0-4D06545FE528}">
-  <dimension ref="A2:I67"/>
+  <dimension ref="A2:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,6 +1615,11 @@
         <v>135</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>118</v>
@@ -1650,19 +1708,49 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/CNN/lib/CnnExcel.xlsx
+++ b/CNN/lib/CnnExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HALIMA\IdeaProjects\Team1\CNN\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0707A6-F59C-493A-9CC7-DEE895D7DBA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892EC0F8-3E47-4180-932C-0CC96A993726}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{ADCFF067-E98F-48E2-ADCA-1D1C17207447}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>&lt;title&gt;CNN Coupons: Promo codes, Coupons &amp;amp; Deals for January 2019&lt;/title&gt;</t>
   </si>
   <si>
-    <t>videos</t>
-  </si>
-  <si>
     <t>opinions</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
   </si>
   <si>
     <t>#nav &gt; div.nav__container &gt; div.nav-menu-links</t>
+  </si>
+  <si>
+    <t>video</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
   <dimension ref="A3:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -1094,7 +1094,7 @@
   <dimension ref="A3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1145,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1162,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1179,7 +1179,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1210,7 +1210,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -1227,7 +1227,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1244,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1261,10 +1261,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>41</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -1349,20 +1349,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -1370,78 +1370,78 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
         <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1467,290 +1467,290 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
